--- a/Variables/Salesforce Dashboard Chart Measures.xlsx
+++ b/Variables/Salesforce Dashboard Chart Measures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSD4SF\Variables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E49CF8-DECB-400A-9046-3F367EA4C053}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4117FBF9-6EED-4AE3-AFD4-0BFBAB625869}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{5F9F463C-5202-41FA-8ABC-C69595410BDE}"/>
   </bookViews>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>ENABLED</t>
   </si>
@@ -267,13 +267,19 @@
   </si>
   <si>
     <t>$(eTimecardHoursParameterized( {$&lt;LastYTDFlag={1}&gt;}   ))</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Requires the optional FinancialForce PSA Module</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +334,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -350,7 +362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -359,12 +371,35 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{224521D0-CE49-4F74-AF24-5AFBC0F26509}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -718,7 +753,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,6 +761,7 @@
     <col min="1" max="1" width="29.109375" customWidth="1"/>
     <col min="2" max="2" width="65.77734375" customWidth="1"/>
     <col min="3" max="3" width="49.88671875" customWidth="1"/>
+    <col min="4" max="4" width="49.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -844,7 +880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -852,10 +888,13 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -863,10 +902,13 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -874,10 +916,13 @@
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -885,10 +930,13 @@
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -896,10 +944,13 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -907,28 +958,41 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1 C1:C4 C17:C1048576">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C7">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:C10">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:C16">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8:C10">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"Y"</formula>
+  <conditionalFormatting sqref="D11:D16">
+    <cfRule type="containsText" dxfId="1" priority="2" stopIfTrue="1" operator="containsText" text="Sample">
+      <formula>NOT(ISERROR(SEARCH("Sample",D11)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C16">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Y"</formula>
+  <conditionalFormatting sqref="D11:D16">
+    <cfRule type="containsText" dxfId="0" priority="1" stopIfTrue="1" operator="containsText" text="Requires">
+      <formula>NOT(ISERROR(SEARCH("Requires",D11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
